--- a/2_Pianificazione/RACI.xlsx
+++ b/2_Pianificazione/RACI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiemmiAndrea5AI\Digiboard\2_Pianificazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scoob\OneDrive\Desktop\Digiboard\2_Pianificazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE7FAC5-A1FE-42F0-B06C-1551C585F016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1A10E-C263-43F0-9BAD-B8591816FCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{BE679B5C-612F-4B06-8B37-FBFCB5CB7302}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BE679B5C-612F-4B06-8B37-FBFCB5CB7302}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>1 Avvio</t>
   </si>
@@ -273,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,11 +309,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -342,9 +351,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -659,7 +671,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,9 +692,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -843,15 +865,13 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>44</v>
@@ -874,15 +894,13 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>44</v>
@@ -914,7 +932,7 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -937,7 +955,7 @@
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1029,7 +1047,7 @@
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1052,15 +1070,13 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>37</v>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>44</v>
@@ -1077,7 +1093,7 @@
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1115,7 +1131,7 @@
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1195,7 +1211,7 @@
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="7"/>
@@ -1221,12 +1237,12 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
-        <v>37</v>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>44</v>
@@ -1245,7 +1261,7 @@
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="7"/>
@@ -1272,13 +1288,11 @@
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="8" t="s">
-        <v>37</v>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>44</v>
@@ -1301,7 +1315,7 @@
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1316,12 +1330,10 @@
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>37</v>
+      <c r="D29" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="10" t="s">
@@ -1345,11 +1357,9 @@
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>37</v>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1455,6 +1465,9 @@
       <c r="A34" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
